--- a/Data/g11.5.xlsx
+++ b/Data/g11.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A0EF63-2547-4636-8DA7-7FE4DEC25A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D601C45-15D7-432E-82D1-0443CC053FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CF57D07A-7795-4F3C-9C83-477988E6984C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Nordeste</t>
   </si>
@@ -123,8 +123,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -135,13 +136,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_g11.5" xfId="1" xr:uid="{15D9E7B5-FB40-49FD-AE15-DD1632DE709E}"/>
+    <cellStyle name="Normal_g11.5 (2)" xfId="2" xr:uid="{BF21BC1D-6F80-493A-82D9-C66A107F98B5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,11 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8CB213-9EA5-4894-A00D-BA776C77BD7A}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>2051.8227941790065</v>
+        <v>2063.2546815552041</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <v>1999.9548644679926</v>
+        <v>2026.2454769549879</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <v>1972.2722208328016</v>
+        <v>1994.678756623669</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>2368.6613373128657</v>
+        <v>2053.1288618212839</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>2419.6428036893103</v>
+        <v>2108.1306989657783</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>2446.1050086570567</v>
+        <v>2161.8818427334827</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>2393.2950354161667</v>
+        <v>2055.6741752119306</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,183 +557,216 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>2549.6860218843572</v>
+        <v>2217.8706460725016</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
-        <v>1654.1633173361176</v>
+        <v>2349.5241070843635</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>1652.6376474133626</v>
+        <v>1363.3659584162349</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>1622.0569612562238</v>
+        <v>1348.5474357705857</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>1808.0537361518554</v>
+        <v>1323.972760983369</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>1820.0202788995591</v>
+        <v>1451.4475450972811</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>1790.6950511083139</v>
+        <v>1458.1723948590411</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>1771.4328783721951</v>
+        <v>1428.311338550863</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>1951.1799558639261</v>
+        <v>1384.5146368845792</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>2425.8281462257323</v>
+        <v>1567.9060525876969</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>2427.4824397166772</v>
+        <v>1690.2464771246339</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>2472.0718049154739</v>
+        <v>1876.9889115723477</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>2560.8185896222731</v>
+        <v>1891.5932716335433</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>2566.485360791512</v>
+        <v>1878.3944616896913</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>2537.8281190562298</v>
+        <v>1948.2491866795624</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3">
-        <v>2493.907252301487</v>
+        <v>1932.1003313572578</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1919.1322264746407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1873.8568874281036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>2022</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2697.7979420537449</v>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2043.5455339562229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2132.5402017040419</v>
       </c>
     </row>
   </sheetData>
